--- a/Data/BotData_15m.xlsx
+++ b/Data/BotData_15m.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,1939 +441,9229 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>021050</t>
+          <t>007770</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>054930</t>
+          <t>083930</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>126880</t>
+          <t>042700</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>377220</t>
+          <t>032960</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>047560</t>
+          <t>182360</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>003310</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>303030</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>081150</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>090350</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>002760</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>008040</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>014440</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>027970</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>009160</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>032560</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>037270</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>047400</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>027580</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>056700</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>041190</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>075970</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>004150</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>095500</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>120240</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>230240</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>007660</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>103590</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>053050</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>094840</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>085370</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>263020</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>125210</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>285490</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>024840</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>004710</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>002700</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>060560</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>248070</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>066670</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>060540</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>037950</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>078150</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>027710</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>236200</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>257720</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
           <t>009470</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>053690</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>083420</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>353200</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>205470</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>010040</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>263810</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>101240</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>091590</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>039420</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>214150</t>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>164060</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>000910</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>002140</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>131030</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>014580</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>143540</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>036120</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>053270</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>006060</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>372910</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20230502091400</t>
+          <t>20230503091400</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1400|1500|1399|1450|420548</t>
+          <t>23500|23750|23050|23650|54812</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>32900|33000|32400|33000|13977</t>
+          <t>17750|17880|17310|17330|103653</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6410|7000|6390|6830|2244065</t>
+          <t>20850|21350|20800|21150|273375</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7550|8300|7150|8300|377130</t>
+          <t>12380|12890|12260|12770|8305</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11450|11460|11210|11350|17649</t>
+          <t>25450|26450|25400|26450|177199</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3260|3555|3260|3355|877071</t>
+          <t>2375|2470|2370|2435|818888</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>17580|18170|17340|18090|38316</t>
+          <t>2240|2250|2070|2105|411976</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3385|3540|3315|3515|256355</t>
+          <t>4395|4595|4390|4550|882667</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4200|4410|4150|4360|54472</t>
+          <t>8480|8590|8470|8550|31333</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6260|6300|6110|6140|60162</t>
+          <t>1683|1702|1683|1695|21184</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8890|9290|8890|9180|43426</t>
+          <t>1045|1068|1045|1060|290308</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2675|2680|2610|2610|128428</t>
+          <t>3680|3700|3680|3700|6086</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>23900|23950|23500|23700|58614</t>
+          <t>1250|1530|1250|1498|3026943</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>5930|6080|5860|6070|113079</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>8940|9310|8810|9250|283754</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>5440|5660|5430|5650|345506</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>5430|6120|5420|6060|13600579</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1600|1605|1583|1605|56072</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>3135|3215|3115|3205|141521</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>4020|4130|4020|4105|153429</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>5420|5910|5380|5730|2673089</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>3110|3110|3100|3110|1156</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>22800|23100|22600|22600|87928</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>16100|16260|16100|16200|733</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>26250|26650|25900|26150|68701</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>9370|9880|9260|9810|1257092</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>7120|7390|7070|7360|67862</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>3575|3695|3535|3660|239059</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>6780|6880|6690|6770|9315</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>26850|27750|26750|27650|130057</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>6450|6530|6430|6530|19807</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>3690|3830|3620|3695|358222</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>17700|19400|17650|19190|983692</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>32850|34350|32400|34200|339180</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>1826|1850|1785|1836|119507</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>6720|7050|6600|6990|700918</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>2075|2095|2070|2085|226481</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>1361|1380|1360|1377|76246</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>26950|27350|26050|26800|1808339</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>9310|10020|9210|9990|1658940</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>7010|7080|6930|7070|74791</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>2405|2430|2395|2420|59338</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>16500|17170|16200|16900|114777</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>1820|1883|1817|1857|5388304</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>2435|2440|2385|2400|102633</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>1982|2085|1982|2045|1933442</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>3150|3315|3150|3255|1446992</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>21600|21800|21550|21750|3542</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>3180|3215|3145|3200|143451</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>22850|29700|22850|29050|1372166</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>10250|10520|10150|10520|72156</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>38100|38450|37800|38350|163555</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>11170|11310|11030|11260|52051</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>21800|21950|21550|21900|32765</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>2935|2940|2895|2910|484516</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>3840|4400|3720|4380|2238078</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>7440|7480|7320|7460|79399</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>9670|10140|9600|10120|3694986</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>4090|4230|4065|4210|508844</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>6790|6830|6410|6460|330703</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>7660|7790|7580|7650|272159</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>1290|1293|1274|1293|5049</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>3995|4010|3945|3970|116976</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>3275|3350|3250|3345|155090</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>3070|3170|3015|3160|95113</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>3765|3795|3745|3785|5818</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>5200|5200|4655|4720|116628</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20230502092900</t>
+          <t>20230503092900</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1450|1667|1441|1640|1991454</t>
+          <t>23600|23750|23350|23600|11976</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33000|34100|32850|34000|31512</t>
+          <t>17330|17470|17250|17470|23436</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6830|7040|6710|6900|2253508</t>
+          <t>21150|21550|20950|21400|190500</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8300|9060|8000|8220|1317408</t>
+          <t>12770|13650|12760|13600|59990</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11350|14620|11300|14620|936785</t>
+          <t>26450|26950|26250|26650|137429</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3355|3390|3310|3335|189620</t>
+          <t>2435|2515|2425|2490|1084426</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>18100|18110|17480|17570|17385</t>
+          <t>2100|2120|2090|2110|117913</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3530|3555|3470|3515|137084</t>
+          <t>4555|4745|4550|4635|1527555</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4390|4880|4360|4530|649045</t>
+          <t>8550|8580|8520|8580|16729</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6140|6220|6110|6130|16366</t>
+          <t>1694|1705|1694|1700|22204</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9180|9290|9140|9270|13682</t>
+          <t>1060|1063|1054|1056|140288</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2610|2650|2590|2630|55647</t>
+          <t>3705|3740|3690|3715|8260</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>23700|24550|23700|24200|124298</t>
+          <t>1498|1520|1416|1476|3147514</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>6070|6320|6070|6270|257281</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>9230|9350|9110|9160|148729</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>5640|5780|5610|5680|399166</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>6070|6460|6040|6210|9649285</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1605|1617|1595|1609|108124</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>3205|3255|3200|3235|154981</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>4105|4110|4080|4080|37071</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>5740|5990|5720|5840|2233751</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>3110|3110|3090|3110|4477</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>22650|23450|22550|23450|122967</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>16200|16300|16190|16300|919</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>26100|26200|25900|25950|28806</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>9800|9840|9650|9790|573258</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>7360|7360|7300|7360|33067</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>3670|3680|3640|3675|88605</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>6780|7000|6760|6970|22849</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>27650|28050|27650|28000|96491</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>6530|6550|6460|6470|3184</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>3695|3700|3625|3670|95029</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>19190|19460|18610|19460|546475</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>34300|34800|33600|33600|233895</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>1839|1860|1833|1848|138172</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>6980|6990|6770|6790|257028</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>2080|2085|2070|2085|90058</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>1377|1384|1375|1384|34188</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>26750|26950|26400|26800|492763</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>9990|10020|9640|9720|646387</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>7070|7320|7030|7300|102071</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>2430|2510|2430|2485|171885</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>16900|17700|16900|17620|195402</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>1857|1858|1826|1841|1191004</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>2400|2400|2360|2375|129301</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>2045|2060|2025|2040|547445</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>3260|3335|3255|3285|837997</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>21750|21950|21700|21800|4010</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>3210|3245|3210|3225|65940</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>29050|29700|28700|29700|410143</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>10510|10670|10380|10470|81591</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>38350|38400|38050|38150|44687</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>11250|11350|11200|11280|23053</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>21950|22300|21850|22200|22920</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>2910|2915|2905|2910|118267</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>4380|4465|4290|4340|1834140</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>7460|7630|7420|7580|174630</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>10120|11100|10030|10590|5809764</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>4205|4220|4170|4200|225889</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>6490|6530|6410|6500|90577</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>7650|7760|7630|7720|131531</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>1293|1300|1293|1300|6224</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>3960|3980|3950|3975|19869</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>3345|3455|3340|3440|414301</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>3160|3190|3145|3155|33254</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>3775|3785|3755|3785|6511</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>4720|4720|4530|4615|128931</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20230502094400</t>
+          <t>20230503094400</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1644|1761|1643|1761|6001129</t>
+          <t>23650|23850|23400|23500|16515</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>34000|34450|33750|34350|16214</t>
+          <t>17450|17820|17430|17700|29010</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6890|6970|6780|6880|673553</t>
+          <t>21400|21700|21300|21550|193593</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8220|8260|7820|7970|236439</t>
+          <t>13600|15650|13500|14280|341337</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14620|14620|14620|14620|194336</t>
+          <t>26650|26750|26200|26300|74069</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3340|3375|3330|3340|72074</t>
+          <t>2495|2520|2480|2505|925227</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>17500|17950|17500|17840|6605</t>
+          <t>2115|2130|2095|2120|127698</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3515|3540|3495|3495|66851</t>
+          <t>4625|4655|4570|4615|524844</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4530|4980|4525|4790|1002978</t>
+          <t>8580|10250|8530|10240|920459</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>6120|6220|5990|6090|27474</t>
+          <t>1700|1705|1690|1700|9497</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>9260|9500|9250|9480|73845</t>
+          <t>1057|1068|1056|1062|328650</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2630|2745|2630|2720|312829</t>
+          <t>3715|3725|3700|3715|2896</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>24200|24350|23800|24100|37450</t>
+          <t>1479|1479|1425|1452|1056500</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>6250|6300|6140|6200|118171</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>9160|9200|9100|9120|49083</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>5680|5720|5640|5660|85664</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>6220|6250|6120|6200|3476647</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>1608|1614|1591|1603|35602</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>3235|3250|3225|3245|46010</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>4080|4085|4065|4075|25383</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>5850|5890|5700|5890|652945</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>3110|3120|3105|3120|2383</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>23400|23650|23250|23250|108768</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>16300|16380|16290|16370|1251</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>26000|26050|25550|25600|68886</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>9790|9900|9710|9780|400592</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>7350|7430|7330|7410|46595</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>3675|3705|3665|3700|156672</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>6970|7030|6940|7010|10913</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>28000|28400|27950|28200|95771</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>6480|6820|6460|6810|46817</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>3660|3770|3645|3770|93524</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>19460|19780|18800|18950|913278</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>33600|34100|33600|33700|67140</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>1849|1878|1848|1866|207110</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>6790|6940|6630|6890|252179</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>2080|2090|2080|2090|47698</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>1385|1387|1383|1386|31190</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>26800|26900|26650|26650|175992</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>9720|9730|9400|9470|332788</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>7320|7420|7300|7380|145945</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>2485|2530|2475|2485|87702</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>17630|17680|17290|17330|100346</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>1838|1842|1800|1818|836827</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>2380|2390|2360|2385|113709</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>2040|2080|2025|2055|816082</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>3290|3315|3255|3280|409202</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>21800|22350|21750|22250|4536</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>3225|3240|3210|3215|23673</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|20737</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>10470|10530|10310|10330|35185</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>38150|38200|37500|37600|82395</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>11280|11360|11230|11260|18906</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>22200|22300|22150|22250|15284</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>2910|2945|2905|2930|174880</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>4340|4345|4240|4285|588666</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>7580|7590|7510|7520|78211</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>10590|10640|10370|10590|2136849</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>4205|4325|4205|4305|845618</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>6500|6590|6470|6560|72916</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>7720|7770|7700|7720|72908</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>1300|1316|1298|1300|7847</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>3970|4010|3965|3985|27117</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>3435|3490|3420|3480|564667</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>3155|3180|3140|3165|36490</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>3785|3795|3780|3790|1468</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>4620|4695|4600|4690|35377</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>20230502095900</t>
+          <t>20230503095900</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1761|1761|1664|1664|4576162</t>
+          <t>23500|23650|23350|23550|10375</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>34350|34600|34050|34100|17712</t>
+          <t>17690|17970|17620|17950|64799</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6870|6950|6630|6660|627366</t>
+          <t>21500|21650|21350|21400|140569</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7970|8580|7920|8150|854876</t>
+          <t>14260|14320|13820|14090|59550</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14620|14620|14620|14620|38106</t>
+          <t>26300|26600|26200|26600|37407</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3340|3370|3330|3355|98659</t>
+          <t>2505|2520|2480|2500|758508</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>17840|18200|17760|17970|32597</t>
+          <t>2120|2120|2020|2020|262211</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3500|3525|3485|3500|44124</t>
+          <t>4615|4625|4570|4570|249886</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4790|4900|4640|4800|367033</t>
+          <t>10240|10350|9500|9590|1355854</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6110|6130|6050|6130|10106</t>
+          <t>1700|1711|1694|1705|19275</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9480|9610|9460|9480|55934</t>
+          <t>1062|1067|1059|1064|188693</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2720|2750|2705|2730|116535</t>
+          <t>3720|3750|3710|3720|13392</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>24100|24300|23950|24150|21533</t>
+          <t>1453|1469|1416|1452|702685</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>6200|6200|6020|6090|84336</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>9120|9160|9050|9080|38477</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>5660|5680|5600|5630|58996</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>6200|6280|6100|6130|1967047</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1604|1610|1594|1596|27918</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>3245|3265|3200|3200|59840</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>4070|4075|4060|4060|18583</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>5880|5940|5720|5750|573555</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>3120|3130|3115|3115|2290</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>23250|23550|23150|23500|69335</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>16370|16370|16290|16290|79</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>25600|25800|25550|25650|13332</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>9770|9890|9750|9890|243707</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>7410|7510|7350|7480|54057</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>3705|3715|3665|3680|98904</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>7010|7450|7010|7200|234811</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>28150|28400|28000|28000|75029</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>6810|7400|6690|6760|549653</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>3770|3795|3710|3750|89797</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>18970|19230|18770|18810|203380</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>33650|33950|32950|32950|60027</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>1866|1900|1864|1879|269837</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>6880|7360|6870|7140|1425583</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>2085|2085|2075|2085|25723</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>1386|1386|1381|1384|25653</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>26650|26700|26400|26700|224892</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>9470|9830|9330|9780|341077</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>7380|7420|7360|7360|52998</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>2485|2565|2470|2550|100828</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>17330|17800|17320|17390|80777</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>1819|1832|1816|1816|415378</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>2385|2400|2380|2380|54124</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>2050|2080|2040|2070|490185</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>3280|3295|3240|3250|278719</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>22250|25800|22200|24150|418857</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>3215|3230|3215|3230|17622</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|9305</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>10330|10380|10170|10240|26793</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>37550|38300|37550|38000|36060</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>11260|11280|11210|11210|9653</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>22250|22250|22100|22100|10140</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>2930|2930|2900|2910|154923</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>4280|4285|4130|4160|573397</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>7520|7520|7370|7420|65065</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>10590|10750|10500|10550|1257070</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>4305|4355|4285|4330|579352</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>6560|6570|6510|6550|35606</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>7720|7720|7620|7710|59367</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>1300|1308|1300|1300|4755</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>3985|3995|3975|3990|12131</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>3480|3520|3440|3515|605241</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>3170|3180|3150|3165|13656</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>3780|4050|3780|4050|215520</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>4690|4700|4640|4680|19914</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>20230502101400</t>
+          <t>20230503101400</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1664|1709|1662|1676|1578295</t>
+          <t>23550|24750|23400|24500|45772</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>34150|34200|33900|34050|7057</t>
+          <t>17950|18370|17840|18100|76523</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6650|6710|6580|6680|272255</t>
+          <t>21400|21550|21350|21400|45241</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8180|8320|8140|8310|144206</t>
+          <t>14080|14380|14070|14230|57357</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14620|14620|13860|13960|1253876</t>
+          <t>26600|26700|26050|26150|45672</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3350|3410|3345|3395|138742</t>
+          <t>2500|2515|2485|2490|521972</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>17950|18000|17600|17780|17347</t>
+          <t>2020|2030|1967|1974|508773</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3500|3520|3415|3490|45550</t>
+          <t>4570|4610|4565|4575|196958</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>4805|4925|4800|4910|361006</t>
+          <t>9580|9640|9290|9320|339919</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6140|6170|6140|6160|9216</t>
+          <t>1705|1707|1700|1705|12615</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>9530|9570|9430|9530|12619</t>
+          <t>1063|1064|1054|1059|191983</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2730|2730|2690|2695|58093</t>
+          <t>3735|3735|3715|3715|1001</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>24200|24400|24100|24400|23575</t>
+          <t>1452|1459|1414|1425|402986</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>6090|6200|6030|6190|40217</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>9080|9190|9070|9180|20039</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>5630|5660|5580|5610|64162</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>6130|6170|6080|6120|1420224</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1596|1602|1594|1600|39039</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>3200|3215|3175|3195|32215</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>4060|4070|4055|4055|17380</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>5750|5790|5620|5750|340745</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>3115|3390|3100|3285|390515</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>23500|25200|23450|24650|784376</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>16290|16330|16280|16290|178</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>25650|25750|25650|25700|9305</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>9880|9900|9800|9900|297119</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>7480|7500|7430|7460|29760</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>3675|3695|3665|3685|72264</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>7210|7320|7130|7220|39630</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>28050|28050|27600|27900|39745</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>6780|6820|6680|6710|53722</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>3725|3755|3710|3735|33015</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>18830|19430|18640|18820|395653</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>32950|33250|32600|33100|53106</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>1878|1881|1871|1879|90679</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>7150|8180|7050|8180|3821004</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>2085|2085|2075|2080|22393</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>1382|1384|1381|1384|6875</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>26700|26800|26600|26700|91761</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>9780|10180|9750|9990|1221135</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>7360|7430|7360|7360|45776</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>2550|2585|2545|2570|118118</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>17390|17500|17260|17290|40575</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>1818|1824|1805|1808|424347</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>2390|2405|2380|2400|31612</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>2075|2080|2045|2045|392304</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>3250|3265|3230|3245|166693</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>24150|24550|23700|24100|115991</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>3230|3255|3230|3255|42669</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|7764</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>10240|10300|10200|10240|14392</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>38000|38150|37750|37850|20574</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>11240|11350|11240|11350|11618</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>22150|22450|22150|22350|37824</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>2910|2920|2905|2915|60948</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>4155|4215|4105|4205|295986</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>7420|7460|7380|7440|36214</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>10550|10580|10230|10350|986237</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>4330|4340|4285|4295|367399</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>6550|6620|6530|6580|35668</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>7710|7830|7710|7800|100451</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>1301|1302|1301|1302|6017</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>3995|4010|3985|3995|28877</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>3515|3585|3505|3545|726687</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>3165|3195|3150|3180|78692</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>4050|4140|3865|4010|372018</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>4680|4710|4650|4710|27189</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>20230502102900</t>
+          <t>20230503102900</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1676|1698|1655|1678|1210262</t>
+          <t>24550|25900|24500|25550|250711</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>34050|34150|34000|34050|2491</t>
+          <t>18110|18140|17920|17970|15758</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6680|6780|6620|6720|211194</t>
+          <t>21400|21550|21400|21450|57032</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8320|8400|8240|8360|110629</t>
+          <t>14270|14360|14150|14200|23314</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13950|14090|13600|13760|342059</t>
+          <t>26200|26250|25850|26050|67162</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3395|3425|3365|3390|111909</t>
+          <t>2495|2500|2455|2465|433903</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17800|18200|17800|18000|20658</t>
+          <t>1974|1998|1943|1954|572810</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3490|3515|3475|3490|22342</t>
+          <t>4580|4750|4570|4725|700509</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>4910|5340|4850|5250|1156500</t>
+          <t>9310|9410|9250|9390|120630</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>6160|6320|6160|6250|42008</t>
+          <t>1705|1712|1699|1711|16204</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9530|9720|9500|9710|41731</t>
+          <t>1058|1060|1050|1055|165908</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2700|2705|2690|2700|14485</t>
+          <t>3730|3740|3720|3725|554</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>24400|24500|24350|24450|17167</t>
+          <t>1429|1515|1421|1425|1625878</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>6180|6190|6100|6130|36638</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>9170|9180|9070|9120|17244</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>5610|5640|5580|5610|45335</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>6130|6440|6120|6370|4219137</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1600|1626|1596|1626|115158</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>3195|3200|3155|3165|12231</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>4065|4065|4040|4050|62533</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>5740|6530|5730|6370|3619095</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>3305|3305|3200|3210|239456</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>24600|26900|24500|25450|1498273</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>16290|16370|16280|16370|3124</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>25700|25750|25600|25650|12007</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>9890|9980|9850|9870|549982</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>7460|7530|7440|7530|23590</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>3685|3685|3660|3670|23551</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>7220|7310|7170|7270|40988</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>27850|27900|27600|27700|21377</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>6700|6740|6660|6740|28223</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>3735|3780|3730|3755|37082</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>18820|18830|18500|18530|180794</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>33100|33900|32900|33850|50822</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>1879|1895|1871|1874|89039</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>8180|8180|7810|7900|1552391</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>2080|2080|2070|2075|41960</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>1384|1385|1379|1382|16547</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>26700|26750|26250|26250|148926</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>9990|10080|9650|9700|369947</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>7360|7570|7360|7450|186527</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>2555|2595|2530|2545|39971</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>17290|17570|17170|17560|41930</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>1807|1810|1804|1805|158290</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>2400|2410|2395|2395|16146</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>2050|2060|2040|2050|184962</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>3250|3270|3240|3265|111799</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>24100|24950|23600|23950|143575</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>3255|3260|3240|3245|25807</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|3722</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>10240|10310|10220|10310|14444</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>37850|37900|37700|37700|13691</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>11330|11440|11330|11360|29568</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>22350|22400|22100|22300|20086</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>2915|2915|2895|2900|130361</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>4210|4270|4120|4260|342304</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>7440|7460|7410|7420|13905</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>10340|10940|10340|10830|2202997</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>4290|4340|4280|4315|307314</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>6580|6620|6500|6560|36796</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>7790|7800|7670|7690|34174</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>1302|1305|1302|1305|4156</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>3995|4015|3995|4015|25484</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>3560|3645|3505|3635|1328926</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>3180|3195|3175|3175|23390</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>4010|4060|3930|3950|134521</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>4705|4715|4650|4660|9293</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>20230502104400</t>
+          <t>20230503104400</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1678|1706|1668|1686|1163264</t>
+          <t>25500|26300|25100|26000|137981</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>34050|34050|33850|33900|3501</t>
+          <t>17980|18230|17970|18060|20022</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6730|6780|6660|6710|131401</t>
+          <t>21500|21600|21400|21550|58076</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8360|8650|8270|8470|352152</t>
+          <t>14200|14470|14100|14180|50373</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13760|13850|13630|13730|153978</t>
+          <t>25950|26250|25650|25650|32423</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3390|3410|3355|3405|54662</t>
+          <t>2465|2495|2460|2470|140318</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>18010|18100|17970|18080|8069</t>
+          <t>1956|1957|1865|1872|953896</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3490|3560|3470|3550|133318</t>
+          <t>4720|4740|4625|4640|603996</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5240|5380|5110|5150|987420</t>
+          <t>9390|9390|9210|9220|99680</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6260|6340|6240|6280|20037</t>
+          <t>1711|1711|1704|1708|17832</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9660|9710|9490|9550|12824</t>
+          <t>1055|1058|1055|1056|41220</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2700|2710|2695|2700|7849</t>
+          <t>3740|3765|3725|3765|4954</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>24400|24700|24400|24600|43635</t>
+          <t>1427|1457|1420|1443|401149</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>6120|6160|6100|6160|15402</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>9120|9240|9080|9220|36463</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>5600|5630|5600|5600|37294</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>6370|6490|6310|6370|3034524</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>1628|1700|1608|1640|269993</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>3160|3240|3160|3215|20197</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>4050|4060|4050|4055|7876</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>6380|6440|6220|6270|1751428</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>3210|3210|3180|3190|62856</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>25500|25700|25050|25300|409634</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>16370|16370|16360|16360|106</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>25600|25650|25600|25600|8077</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>9870|9880|9800|9850|208389</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>7520|7530|7470|7470|16118</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>3670|3680|3660|3680|34576</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>7250|7420|7180|7230|44816</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>27700|27900|27650|27850|9747</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>6730|6770|6680|6680|27969</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>3755|3815|3750|3795|56200</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>18530|18540|18270|18400|131774</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>33850|34500|33700|34100|106753</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>1874|1885|1869|1882|38352</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>7890|7970|7820|7880|521045</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>2075|2080|2060|2060|197037</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>1381|1387|1380|1387|24260</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>26350|26450|26200|26300|90949</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>9700|9980|9660|9890|221787</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>7460|7490|7350|7450|39769</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>2540|2575|2530|2565|34729</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>17560|17650|17480|17530|42663</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>1805|1815|1803|1809|183372</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>2395|2400|2380|2390|59876</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>2050|2060|2045|2050|147817</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>3265|3460|3260|3395|4298796</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>23950|25500|23750|24100|229300</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>3245|3255|3225|3235|40308</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|3317</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>10290|10340|10230|10240|17909</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>37700|37800|37500|37500|30264</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>11370|11430|11300|11410|7296</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>22250|22350|22200|22350|7614</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>2900|2905|2880|2885|207855</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>4260|4300|4230|4290|393925</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>7420|7420|7360|7390|22073</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>10820|11280|10790|11020|2829950</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>4320|4350|4285|4310|352619</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>6530|6560|6500|6540|11830</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>7690|7750|7650|7710|31585</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>1305|1305|1303|1305|1596</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>4015|4020|4005|4020|26459</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>3635|3735|3595|3720|2813213</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>3190|3190|3170|3180|15773</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>3950|4140|3935|4140|556716</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>4650|4685|4650|4675|3872</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>20230502105900</t>
+          <t>20230503105900</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1685|1689|1636|1651|1096390</t>
+          <t>26050|30450|26000|30450|573364</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>33850|34100|33800|33950|1699</t>
+          <t>18090|18090|17860|17890|13970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6710|6750|6660|6720|86972</t>
+          <t>21550|21600|21400|21400|32811</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8470|8470|8200|8310|171692</t>
+          <t>14180|14270|13840|13960|18987</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>13720|13770|13140|13140|369634</t>
+          <t>25650|25850|25600|25750|19555</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3410|3465|3400|3460|245882</t>
+          <t>2470|2475|2460|2465|84162</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>18080|18860|17990|18770|74283</t>
+          <t>1875|1927|1875|1915|578980</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3540|3690|3525|3660|192919</t>
+          <t>4635|4670|4625|4635|191369</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5140|5230|5010|5070|427399</t>
+          <t>9230|9290|9200|9240|44601</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6280|6290|6200|6260|10505</t>
+          <t>1708|1711|1701|1701|13485</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9510|9590|9490|9550|3635</t>
+          <t>1056|1057|1052|1056|31377</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2700|2705|2690|2695|10615</t>
+          <t>3765|3790|3755|3770|11154</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>24600|24850|24450|24850|46852</t>
+          <t>1444|1446|1428|1430|157408</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>6150|6570|6150|6390|671660</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>9180|9230|9110|9110|10040</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>5620|5620|5590|5600|27134</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>6370|6390|6310|6320|815116</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>1648|1660|1639|1654|123841</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>3235|3255|3210|3225|28045</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>4055|4060|4050|4055|9453</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>6270|6280|6090|6120|889956</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>3190|3210|3160|3160|54600</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>25350|25550|25050|25550|201346</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>16360|16400|16360|16390|942</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>25600|25700|25350|25400|44641</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>9850|9900|9750|9810|269931</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>7470|7540|7460|7510|40432</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>3680|3680|3655|3670|12482</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>7220|7270|7190|7220|10001</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>27850|27900|27700|27700|14456</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>6680|6720|6640|6680|22464</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>3790|4070|3785|3860|922018</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>18400|18640|18350|18360|86310</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>34100|34150|33700|33700|38943</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>1880|1885|1870|1875|26053</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>7860|7880|7670|7700|611599</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>2060|2065|2055|2065|47472</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>1387|1393|1386|1392|38386</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>26300|26400|26200|26250|56760</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>9890|9990|9680|9690|162180</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>7450|7460|7390|7410|19713</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>2565|2595|2560|2590|56147</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>17530|17540|17370|17470|20008</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>1808|1809|1803|1808|93255</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>2390|2400|2390|2400|6358</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>2050|2055|2035|2035|112514</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>3395|3410|3320|3320|1252372</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>24200|24800|24000|24700|70992</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>3235|3235|3200|3220|44635</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|1973</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>10240|10260|10110|10110|22640</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>37500|37550|37150|37150|67627</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>11410|11770|11400|11650|158309</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>22300|22350|22250|22300|6471</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>2885|2890|2860|2875|314905</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>4290|4295|4215|4215|127976</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>7390|7390|7340|7360|31440</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>11040|11070|10800|10880|893040</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>4315|4340|4300|4310|184588</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>6540|6540|6400|6510|65596</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>7710|7730|7660|7670|31221</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>1305|1314|1303|1303|1574</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>4015|4015|3990|4005|15572</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>3720|3840|3705|3820|4644289</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>3175|3175|3155|3160|16040</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>4185|4185|3920|3975|1013033</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>4675|4680|4655|4670|2570</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>20230502111400</t>
+          <t>20230503111400</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1650|1661|1643|1647|398240</t>
+          <t>31250|31250|31250|31250|167673</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>34000|34100|33850|34050|1285</t>
+          <t>17880|17910|17780|17780|12118</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6710|6720|6620|6640|80213</t>
+          <t>21450|21650|21400|21650|119653</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8270|8290|8170|8220|47818</t>
+          <t>13890|14450|13890|14450|15142</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>13160|13340|13040|13330|164118</t>
+          <t>25750|25800|25600|25750|18849</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3465|3500|3410|3460|273853</t>
+          <t>2465|2470|2435|2440|162892</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>18710|20450|18490|19940|381880</t>
+          <t>1919|1920|1896|1901|317900</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3665|3720|3575|3580|724962</t>
+          <t>4635|4645|4580|4605|188232</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5070|5150|5020|5100|210912</t>
+          <t>9230|9290|9210|9240|25143</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6260|6260|6200|6240|7871</t>
+          <t>1702|1706|1701|1703|2807</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>9540|9570|9490|9510|13916</t>
+          <t>1056|1056|1053|1054|32802</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2700|2745|2700|2725|77635</t>
+          <t>3775|3795|3770|3785|6307</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>24800|25050|24800|25050|70550</t>
+          <t>1429|1434|1418|1426|172363</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>6380|6480|6290|6320|249505</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>9110|9180|9100|9130|15180</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>5600|5640|5590|5640|21752</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>6330|6360|6240|6340|1079066</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1653|1691|1651|1656|257836</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>3225|3250|3205|3245|15863</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>4055|4060|4050|4050|15642</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>6130|6260|6090|6200|672890</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>3155|3195|3150|3195|10046</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>25550|25600|24900|25450|194063</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>16390|16410|16370|16410|720</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>25400|25450|25300|25400|16794</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>9800|9960|9770|9950|272395</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>7510|7570|7480|7530|39810</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>3665|3680|3660|3680|7352</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>7220|7440|7200|7420|50198</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>27700|27900|27650|27900|6816</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>6680|6680|6620|6630|10962</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>3875|3990|3860|3910|195077</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>18360|18470|18300|18450|69385</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>33650|33750|33350|33450|23955</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>1876|1880|1871|1880|17251</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>7690|7740|7580|7700|514718</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>2065|2070|2060|2070|52614</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>1393|1397|1392|1395|75223</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>26250|26300|26050|26100|108183</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>9700|9790|9530|9710|140842</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>7410|7480|7390|7470|23404</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>2590|2600|2565|2585|43586</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>17450|17880|17450|17790|123822</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>1808|1810|1800|1809|296602</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>2395|2415|2395|2415|16450</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>2035|2045|2025|2035|93401</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>3320|3340|3305|3325|692487</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>24750|25700|24300|25600|254539</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>3215|3220|3200|3215|12367</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|6146</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>10120|10200|10100|10150|9938</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>37100|37500|37050|37300|24762</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>11680|11750|11640|11660|53830</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>22300|22550|22250|22550|29228</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>2875|2885|2865|2870|101541</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>4215|4325|4150|4270|347642</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>7360|7400|7340|7380|14936</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>10880|10900|10650|10800|629839</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>4310|4320|4285|4285|124894</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>6510|6540|6470|6490|12251</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>7670|7700|7650|7700|23010</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>1303|1310|1303|1310|451</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>4005|4005|3980|4000|7521</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>3825|3860|3690|3760|3548831</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>3165|3180|3160|3180|24909</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>3980|4015|3965|3975|96828</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>4675|4675|4645|4670|13444</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>20230502112900</t>
+          <t>20230503112900</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1647|1662|1639|1652|288364</t>
+          <t>31250|31250|31250|31250|28670</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>34150|34500|34150|34300|7324</t>
+          <t>17780|17900|17770|17900|10190</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6660|6700|6610|6620|48161</t>
+          <t>21600|22300|21600|22300|760381</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8210|8240|8090|8180|59788</t>
+          <t>14440|14500|14240|14390|32501</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>13330|13410|13120|13360|94218</t>
+          <t>25750|25750|25500|25600|23098</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3460|3680|3435|3640|1109929</t>
+          <t>2445|2475|2440|2460|88177</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>19940|21700|19760|21700|353472</t>
+          <t>1902|1922|1875|1916|274222</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3580|3630|3565|3630|79278</t>
+          <t>4615|4655|4600|4650|105038</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>5090|5240|5060|5190|345476</t>
+          <t>9220|9230|9070|9150|131914</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>6240|6430|6220|6400|54383</t>
+          <t>1703|1704|1700|1703|10077</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9510|9530|9470|9510|7536</t>
+          <t>1054|1054|1053|1054|6516</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2730|2750|2690|2705|65009</t>
+          <t>3785|3785|3745|3745|3786</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>25050|25400|25000|25300|54403</t>
+          <t>1423|1431|1419|1429|90238</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>6330|6420|6270|6410|88850</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>9130|9190|9080|9180|11812</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>5640|5640|5610|5620|13859</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>6340|6470|6310|6470|1250836</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>1656|1665|1630|1637|81257</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>3250|3250|3215|3215|4234</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>4050|4060|4040|4045|10849</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>6210|6290|6130|6240|348802</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>3195|3200|3180|3180|5835</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>25500|25700|25100|25350|104983</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>16400|16400|16370|16380|360</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>25400|25450|25250|25350|17731</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>9950|10020|9920|10000|752732</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>7530|7560|7500|7520|16325</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>3680|3695|3670|3675|27501</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>7380|7430|7260|7380|31440</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>27900|27900|27750|27800|5345</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>6640|6670|6610|6660|14680</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>3910|3915|3850|3870|85878</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>18450|18640|18390|18590|49311</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>33450|33900|33350|33900|14062</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>1880|1900|1879|1890|123351</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>7700|7740|7610|7630|253252</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>2070|2075|2070|2075|29623</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>1396|1398|1395|1396|19875</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>26100|26300|25950|26200|92537</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>9710|9750|9590|9730|74309</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>7470|7500|7450|7480|25787</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>2585|2590|2570|2580|22561</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>17800|18080|17620|17650|161237</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>1809|1809|1783|1790|348749</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>2415|2415|2400|2410|10549</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>2040|2040|2035|2040|39943</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>3320|3355|3310|3320|318892</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>25550|25800|24650|25600|262172</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>3210|3215|3200|3210|28882</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|1999</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>10140|10220|10130|10130|5096</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>37300|37500|37300|37400|13092</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>11660|11700|11640|11660|29621</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>22550|22650|22450|22650|24108</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>2870|2875|2855|2875|139208</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>4260|4275|4190|4210|106511</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>7380|7380|7280|7280|54806</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>10800|11040|10730|10990|740549</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>4290|4310|4250|4310|179942</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>6520|6540|6470|6520|8116</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>7700|7700|7640|7650|17830</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>1309|1309|1307|1307|2342</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>3995|4000|3980|3985|1337</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>3760|3870|3755|3805|3603642</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>3180|3180|3165|3165|7541</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>3975|4030|3975|4000|67277</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>4665|4670|4645|4665|5967</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>20230502114400</t>
+          <t>20230503114400</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1651|1670|1644|1656|285615</t>
+          <t>31250|31250|31250|31250|7571</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>34350|34600|34350|34500|6709</t>
+          <t>17900|18050|17900|18030|9787</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6620|6660|6520|6530|116918</t>
+          <t>22300|22650|22050|22500|873369</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8200|8200|8130|8140|30912</t>
+          <t>14400|14450|14320|14380|6485</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>13360|13490|13210|13380|94555</t>
+          <t>25650|25650|25550|25650|6693</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3635|3650|3435|3475|722500</t>
+          <t>2460|2465|2440|2445|61052</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21700|22850|21700|22850|301264</t>
+          <t>1913|1935|1907|1918|257955</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3620|3830|3585|3810|1007239</t>
+          <t>4650|4750|4640|4750|647389</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>5180|5190|5010|5040|225366</t>
+          <t>9150|9160|9090|9130|25228</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>6390|6470|6290|6450|74132</t>
+          <t>1703|1714|1701|1714|25283</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>9500|9520|9460|9520|4411</t>
+          <t>1054|1055|1052|1052|23856</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2705|2745|2705|2725|22484</t>
+          <t>3770|3775|3750|3775|1291</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>25250|25650|25250|25450|76348</t>
+          <t>1429|1429|1419|1427|42951</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>6410|6410|6320|6340|32459</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>9170|9180|9110|9130|9674</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>5620|5630|5610|5610|26706</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>6470|6670|6440|6670|3772075</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>1637|1664|1637|1651|34315</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>3215|3250|3210|3245|12917</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>4045|4050|4045|4045|15209</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>6230|6480|6170|6440|1471757</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>3185|3185|3160|3180|11179</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>25200|25300|24750|24800|122708</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>16380|16400|16330|16400|394</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>25350|25450|25300|25350|13516</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>10000|10030|9850|9880|351714</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>7510|7540|7500|7530|16237</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>3675|3680|3665|3670|18192</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>7380|7420|7280|7320|17525</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>27850|27900|27800|27900|4082</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>6670|6670|6600|6640|9939</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>3865|3890|3850|3890|27490</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>18590|18660|18440|18540|34103</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>33900|35750|33850|35150|387160</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>1890|1896|1885|1894|39140</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>7640|7790|7620|7760|325092</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>2075|2075|2065|2065|10480</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>1396|1398|1396|1396|24105</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>26200|26300|26150|26250|31333</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>9730|9730|9570|9610|72742</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>7480|7520|7450|7490|47688</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>2580|2590|2555|2555|14247</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>17650|17800|17520|17800|46952</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>1791|1792|1776|1787|215863</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>2410|2465|2410|2450|149239</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>2040|2045|2035|2035|35350</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>3315|3370|3290|3360|623433</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>25600|25650|25000|25500|163372</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>3210|3210|3195|3210|17004</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|2191</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>10160|10160|10100|10130|11594</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>37350|37450|37300|37400|8740</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>11650|11690|11640|11640|21277</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>22650|22650|22550|22650|10980</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>2870|2880|2860|2870|78944</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>4210|4325|4210|4305|265804</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>7280|7280|7190|7210|66331</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>10990|11560|10960|11560|4044113</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>4305|4320|4270|4275|133189</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>6520|6530|6490|6520|8952</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>7670|7720|7630|7640|30540</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>1307|1313|1306|1307|826</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>3985|4000|3985|3990|6837</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>3805|3845|3760|3770|1429568</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>3170|3425|3155|3300|1452355</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>4000|4000|3940|3980|54207</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>4665|4665|4630|4660|4138</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>20230502115900</t>
+          <t>20230503115900</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1656|1659|1645|1658|145843</t>
+          <t>31250|31250|31250|31250|3933</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>34500|34700|34500|34650|5316</t>
+          <t>18030|18270|18000|18190|23375</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6530|6650|6530|6630|74306</t>
+          <t>22500|22800|22300|22500|675979</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8140|8240|8130|8210|19821</t>
+          <t>14370|14470|14260|14260|9757</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13410|13490|13300|13380|49367</t>
+          <t>25650|25650|25600|25650|4869</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3475|3490|3440|3465|99741</t>
+          <t>2445|2460|2440|2455|29990</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|10522</t>
+          <t>1918|1924|1909|1911|91621</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3810|3930|3730|3840|1970813</t>
+          <t>4750|4780|4715|4735|790228</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>5040|5060|4940|5010|273260</t>
+          <t>9130|9130|9060|9110|26892</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>6450|6510|6390|6440|67050</t>
+          <t>1714|1735|1714|1717|35720</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>9520|9520|9450|9460|1779</t>
+          <t>1053|1055|1050|1051|141332</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2735|2745|2720|2720|4347</t>
+          <t>3775|3775|3760|3760|387</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>25450|25500|25300|25450|22255</t>
+          <t>1427|1448|1418|1445|400581</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>6350|6420|6310|6340|71764</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>9120|9150|9100|9120|4810</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>5610|5620|5590|5600|17237</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>6670|6670|6550|6580|1186757</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>1652|1660|1648|1651|41458</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>3245|3245|3235|3240|3348</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>4045|4045|4030|4040|19646</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>6450|6500|6280|6320|1083934</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>3180|3180|3160|3170|2510</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>24800|24800|24500|24550|113062</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>16400|16600|16390|16590|7593</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>25400|25400|25300|25350|10511</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>9890|9920|9860|9890|78447</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>7530|7530|7460|7470|28043</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>3670|3675|3650|3660|15585</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>7320|7460|7280|7400|39389</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>27850|27900|27750|27750|8422</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>6640|6640|6620|6630|2206</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>3890|3915|3870|3870|52759</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>18550|18650|18510|18580|27845</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>35200|35250|34250|34500|99690</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>1894|1896|1887|1891|31250</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>7760|7840|7720|7840|242411</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>2065|2070|2065|2070|35940</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>1398|1399|1397|1398|15537</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>26200|26800|26200|26750|134198</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>9620|9620|9380|9480|136333</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>7490|7520|7460|7470|26059</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>2555|2590|2555|2560|17701</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>17820|17820|17630|17650|33269</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>1786|1790|1781|1786|88559</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>2455|2455|2420|2435|81658</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>2035|2040|2030|2035|61865</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>3355|3365|3320|3335|218523</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>25500|26000|25050|25300|234942</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>3215|3215|3195|3200|11508</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|7415</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>10130|10180|10120|10160|4697</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>37350|37450|37300|37300|9246</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>11650|11670|11540|11540|21840</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>22650|22700|22550|22700|17396</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>2875|2875|2865|2870|38079</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>4305|4310|4250|4255|118603</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>7220|7250|7200|7200|36584</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>11560|11560|11340|11350|1527832</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>4275|4310|4250|4295|174224</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>6530|6630|6520|6620|26028</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>7650|7650|7580|7590|40914</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>1307|1313|1307|1308|6351</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>3990|3990|3960|3985|17615</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>3775|3800|3755|3765|691072</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>3290|3340|3250|3265|297759</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>3990|4020|3955|4010|44559</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>4660|4660|4630|4650|928</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>20230502121400</t>
+          <t>20230503121400</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1658|1668|1649|1652|193323</t>
+          <t>31250|31250|31250|31250|1382</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>34600|34850|34500|34650|6321</t>
+          <t>18200|18290|18110|18180|12366</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6630|6670|6610|6650|33676</t>
+          <t>22500|22600|22300|22350|313741</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8210|8270|8150|8200|35350</t>
+          <t>14330|14380|14110|14300|10399</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>13380|13450|13290|13290|44133</t>
+          <t>25600|25800|25600|25650|7782</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3465|3495|3435|3450|83307</t>
+          <t>2455|2475|2445|2465|96301</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|6572</t>
+          <t>1911|1919|1894|1914|111824</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3830|3915|3775|3880|934082</t>
+          <t>4735|4830|4690|4830|606804</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>5020|5090|4985|5010|178906</t>
+          <t>9110|9110|9060|9060|16844</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6430|6480|6350|6450|22980</t>
+          <t>1717|1729|1716|1729|25842</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9460|9500|9450|9490|593</t>
+          <t>1051|1054|1051|1052|28597</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2720|2725|2715|2720|3829</t>
+          <t>3760|3775|3760|3770|1330</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>25450|25500|25400|25450|15409</t>
+          <t>1446|1458|1431|1444|451201</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>6330|6400|6290|6380|43003</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>9120|9120|9060|9080|14175</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>5610|5620|5580|5600|21056</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>6580|6630|6540|6610|702994</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>1651|1680|1646|1668|92086</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>3235|3245|3230|3240|4761</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>4040|4045|4035|4045|4613</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>6340|6390|6220|6340|571411</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>3170|3175|3145|3145|28196</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>24550|24600|24300|24500|85891</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>16590|16740|16550|16570|8161</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>25350|25600|25350|25550|8937</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>9880|9900|9850|9860|64196</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>7460|7500|7450|7470|6747</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>3660|3670|3650|3660|9624</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>7400|7450|7340|7400|20811</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>27750|27800|27750|27800|2200</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>6630|6640|6620|6620|3357</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>3870|3880|3820|3860|40249</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>18570|18570|18440|18470|19523</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>34500|35300|34350|35000|115219</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>1890|1894|1886|1887|13640</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>7840|7870|7770|7810|259971</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>2070|2075|2070|2070|15430</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>1398|1400|1397|1397|36480</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>26750|26800|26450|26450|60742</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>9480|9760|9470|9630|84630</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>7470|7500|7400|7450|30564</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>2560|2580|2545|2555|11255</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>17640|17690|17530|17600|19551</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>1786|1793|1783|1793|87513</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>2435|2440|2420|2425|35845</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>2035|2050|2020|2035|193755</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>3335|3375|3320|3345|237988</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>25300|25550|24600|24800|91041</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>3195|3210|3190|3200|15606</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|1113</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>10120|10170|10120|10160|3505</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>37300|37350|37150|37200|18353</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>11580|11620|11550|11600|4425</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>22700|22700|22500|22500|13808</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>2875|2880|2865|2880|80379</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>4255|4285|4250|4280|68007</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>7200|7230|7200|7210|15941</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>11360|11540|11300|11520|754230</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>4300|4345|4270|4330|315373</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>6620|6630|6570|6600|16676</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>7590|7600|7570|7580|29236</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>1308|1314|1308|1313|598</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>3985|3990|3970|3985|3139</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>3760|3775|3735|3745|778195</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>3265|3290|3255|3275|82179</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>4000|4010|3935|3980|28682</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>4650|4650|4600|4610|16222</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>20230502122900</t>
+          <t>20230503122900</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1653|1705|1653|1697|729946</t>
+          <t>31250|31250|31250|31250|2347</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>34700|34850|34650|34850|2771</t>
+          <t>18170|18250|18150|18240|9290</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6660|6830|6650|6810|420792</t>
+          <t>22350|22400|22100|22250|258784</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8200|8220|8130|8190|21664</t>
+          <t>14330|14410|14240|14270|9889</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>13290|13330|13150|13180|72440</t>
+          <t>25650|25800|25600|25700|7615</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3460|3495|3425|3455|56652</t>
+          <t>2465|2480|2455|2475|89541</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|4484</t>
+          <t>1916|1916|1901|1911|92079</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3885|3960|3810|3830|651640</t>
+          <t>4830|4830|4750|4785|1550267</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5010|5090|5000|5040|70840</t>
+          <t>9060|9090|9020|9080|27102</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>6450|6650|6420|6510|157172</t>
+          <t>1729|1760|1728|1751|178171</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>9490|9500|9470|9470|3824</t>
+          <t>1052|1055|1051|1053|6845</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2720|2730|2720|2720|4293</t>
+          <t>3770|3800|3755|3790|14937</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>25450|25550|25350|25500|21173</t>
+          <t>1445|1453|1428|1428|219185</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>6380|6500|6350|6400|128218</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>9080|9110|9060|9060|12018</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>5600|5610|5590|5590|10181</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>6610|6700|6610|6670|1568185</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>1668|1668|1657|1658|26703</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>3235|3245|3230|3230|4304</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>4045|4045|4030|4035|10669</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>6340|6550|6330|6540|1449050</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>3165|3165|3145|3160|4713</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>24500|24700|24350|24500|66463</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>16570|17330|16480|17050|47124</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>25500|25550|25400|25450|8940</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>9850|9910|9820|9900|142243</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>7470|7480|7420|7450|16437</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>3655|3660|3635|3650|36715</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>7400|7410|7320|7360|13389</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>27800|27800|27650|27700|10211</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>6620|6650|6620|6650|5156</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>3860|3930|3840|3925|36524</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>18470|18620|18440|18560|27675</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>34950|35300|34700|35000|107935</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>1887|1890|1870|1886|46075</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>7800|7870|7730|7860|247284</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>2075|2075|2065|2075|34929</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>1397|1399|1396|1399|30575</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>26450|26550|26400|26400|28558</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>9630|9720|9550|9550|77518</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>7450|7470|7410|7420|9331</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>2560|2570|2545|2545|5600</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>17600|17700|17440|17510|32417</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>1793|1801|1791|1801|106784</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>2430|2430|2410|2415|41699</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>2045|2045|2025|2035|72793</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>3350|3365|3330|3335|154699</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>24800|24850|24100|24500|72730</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>3200|3215|3190|3190|22733</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|746</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>10160|10400|10100|10180|43801</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>37150|37300|37050|37050|16791</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>11600|11600|11500|11600|17309</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>22500|22600|22400|22400|13058</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>2875|2885|2870|2880|61491</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>4285|4600|4285|4505|2276467</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>7210|7230|7210|7230|5995</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>11530|11850|11490|11750|2229024</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>4330|4460|4325|4420|1007402</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>6600|6620|6570|6570|7578</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>7580|7600|7510|7540|59921</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>1313|1313|1307|1307|2495</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>3985|3995|3970|3995|3760</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>3750|3760|3735|3745|333501</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>3275|3275|3205|3240|126833</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>3970|3985|3950|3950|25152</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>4610|4620|4590|4600|4769</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>20230502124400</t>
+          <t>20230503124400</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1696|1759|1692|1716|2272072</t>
+          <t>31250|31250|31250|31250|3993</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>34850|35000|34600|34900|15101</t>
+          <t>18240|18370|18220|18300|17604</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6810|6810|6740|6790|114027</t>
+          <t>22250|22300|22100|22150|133091</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8160|8180|8010|8020|39981</t>
+          <t>14290|14370|14210|14320|7351</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>13200|13290|12930|13000|133753</t>
+          <t>25700|25750|25650|25700|5261</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3470|3530|3450|3515|74573</t>
+          <t>2475|2490|2470|2470|130035</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|3967</t>
+          <t>1910|1930|1910|1924|66481</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3830|3890|3730|3785|411050</t>
+          <t>4780|5040|4780|4990|3166313</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5040|5070|4955|4970|166114</t>
+          <t>9070|9190|9060|9150|30600</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>6520|6630|6460|6620|57410</t>
+          <t>1751|1758|1734|1748|84535</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9470|9590|9470|9560|7026</t>
+          <t>1053|1061|1053|1057|54563</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2725|2725|2715|2720|4906</t>
+          <t>3800|3800|3770|3790|1514</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>25500|25600|25400|25550|25643</t>
+          <t>1428|1431|1414|1423|182625</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>6410|6480|6380|6410|101138</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>9100|9220|9070|9200|22410</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>5610|5620|5590|5620|41392</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>6670|6720|6630|6720|2048653</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>1658|1690|1649|1690|107820</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>3230|3235|3210|3210|9088</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>4035|4045|4035|4040|2084</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>6540|6870|6520|6760|2494912</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>3160|3165|3145|3155|12398</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>24500|24650|24450|24600|26025</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>17080|17150|16850|17090|25157</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>25450|25550|25450|25450|10776</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>9890|9950|9890|9940|92131</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>7440|7500|7420|7480|9038</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>3650|3685|3650|3680|35674</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>7340|7380|7280|7340|7778</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>27700|27850|27650|27850|3739</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>6650|6680|6640|6680|4102</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>3925|3945|3870|3905|38704</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>18560|18580|18400|18470|22740</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>35000|35650|34600|35400|129012</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>1886|1896|1885|1894|43955</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>7850|7870|7730|7800|185990</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>2075|2075|2065|2070|6772</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>1399|1399|1393|1397|30269</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>26400|26500|26150|26200|52438</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>9550|9730|9520|9730|70036</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>7420|7500|7410|7500|22339</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>2550|2575|2540|2550|21860</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>17520|18770|17520|18470|652728</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>1802|1808|1798|1800|153016</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>2415|2420|2410|2420|20434</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>2035|2055|2035|2045|139307</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>3340|3365|3330|3345|223162</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>24450|24850|24350|24550|36373</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>3195|3210|3190|3200|4351</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|1022</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>10170|10220|10140|10190|6174</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>37050|37200|36900|37150|44112</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>11600|11670|11550|11670|6190</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>22450|22550|22400|22550|9854</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>2880|2880|2875|2880|39437</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>4495|4550|4450|4490|1030913</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>7230|7250|7210|7220|7654</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>11750|11970|11620|11960|1418596</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>4420|4530|4365|4370|1569371</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>6580|6640|6580|6620|6535</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>7540|7570|7530|7560|10900</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>1307|1310|1306|1310|10773</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>3990|4000|3980|4000|16558</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>3745|3810|3740|3785|756432</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>3230|3255|3210|3255|38085</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>3955|4010|3930|4010|52695</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>4600|4620|4575|4580|9796</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>20230502125900</t>
+          <t>20230503125900</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1715|1718|1701|1713|936247</t>
+          <t>31250|31250|31250|31250|10994</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>34900|35200|34850|34900|12744</t>
+          <t>18310|18360|18200|18220|13913</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6780|6820|6770|6800|83232</t>
+          <t>22150|22250|22000|22200|140655</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8060|8090|7970|8000|34420</t>
+          <t>14320|14500|14310|14400|18461</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>13000|13250|12900|13180|68767</t>
+          <t>25750|25900|25700|25750|16672</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3525|3560|3515|3525|80279</t>
+          <t>2465|2465|2440|2445|120604</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|5476</t>
+          <t>1924|1925|1905|1916|80005</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3785|3830|3760|3815|182983</t>
+          <t>4995|5030|4830|4830|2126869</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4975|5060|4960|4990|97776</t>
+          <t>9150|9240|9130|9140|24057</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>6630|6770|6530|6660|222791</t>
+          <t>1748|1760|1739|1758|107433</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>9570|9580|9500|9540|3003</t>
+          <t>1057|1058|1054|1056|24822</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2720|2740|2720|2740|16437</t>
+          <t>3790|3870|3790|3845|41472</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>25550|25550|25250|25450|22566</t>
+          <t>1423|1426|1418|1418|53179</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>6410|6450|6370|6420|49551</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>9180|9250|9130|9140|17812</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>5620|5660|5610|5650|27134</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>6720|6720|6620|6640|2250016</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1690|1690|1653|1653|67561</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>3220|3220|3195|3205|8363</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>4035|4045|4035|4045|7195</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>6760|6770|6550|6570|1509191</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>3155|3160|3140|3150|6647</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>24550|24600|24450|24500|29005</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>17040|17700|16970|17680|103348</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>25450|25500|25400|25400|10499</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>9930|9960|9900|9960|104541</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>7480|7500|7460|7490|7719</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>3680|3710|3670|3690|46576</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>7320|7340|7240|7290|11854</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>27850|27850|27750|27850|5304</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>6680|6700|6670|6670|4980</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>3910|3910|3855|3855|31077</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>18470|18640|18450|18610|34690</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>35450|35900|34400|34500|237416</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>1890|1899|1876|1878|62977</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>7800|7820|7610|7740|231875</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>2070|2075|2065|2075|3612</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>1395|1400|1395|1399|31111</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>26200|26450|26150|26400|52495</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>9730|9750|9650|9740|71577</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>7490|7490|7450|7470|10674</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>2555|2565|2530|2545|10511</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>18430|18460|18010|18070|230849</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>1800|1801|1788|1790|98885</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>2420|2425|2410|2415|13311</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>2045|2045|2030|2030|53579</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>3345|3360|3335|3350|124111</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>24550|24800|24200|24450|32398</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>3205|3205|3185|3195|10938</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|600</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>10190|10270|10180|10180|16318</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>37200|37600|37150|37550|26126</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>11660|11660|11570|11570|8941</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>22550|22650|22500|22600|14880</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>2875|2885|2870|2880|52479</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>4490|4650|4460|4515|1217914</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>7220|7220|7200|7210|18388</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>11970|12040|11770|11820|1782654</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>4370|4380|4300|4325|460055</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>6620|6620|6570|6600|10579</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>7570|7580|7550|7580|11472</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>1310|1313|1307|1313|3656</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>4005|4005|3990|4000|14621</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>3780|3800|3750|3780|423174</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>3255|3255|3220|3250|43134</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>4010|4030|3965|3990|82791</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>4580|4600|4575|4585|5914</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>20230502131400</t>
+          <t>20230503131400</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1710|1713|1701|1706|246348</t>
+          <t>31250|31250|31250|31250|2003</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>34900|35100|34700|35000|6755</t>
+          <t>18210|18500|18200|18270|37491</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6790|6800|6740|6770|68867</t>
+          <t>22150|22200|22050|22050|73549</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8000|8090|7970|8090|20178</t>
+          <t>14400|15140|14400|14830|88273</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>13170|13250|13100|13150|49336</t>
+          <t>25750|25950|25700|25900|10420</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3525|3550|3515|3525|40073</t>
+          <t>2445|2465|2445|2460|31806</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|1903</t>
+          <t>1916|1923|1907|1909|65443</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3815|3820|3770|3775|165971</t>
+          <t>4830|4930|4800|4830|701182</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4990|5010|4950|4980|85614</t>
+          <t>9140|9180|9110|9130|14295</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>6650|7340|6620|7120|1960054</t>
+          <t>1758|1784|1742|1757|359883</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>9540|9550|9480|9530|3388</t>
+          <t>1056|1057|1055|1057|20238</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2735|2750|2735|2735|46354</t>
+          <t>3845|3845|3820|3830|3827</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>25500|25500|25400|25500|14747</t>
+          <t>1418|1424|1417|1420|53857</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>6430|6690|6380|6620|500342</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>9140|9210|9140|9180|12310</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>5640|5640|5610|5620|19670</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>6650|6710|6640|6670|735803</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>1652|1672|1651|1663|27499</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>3210|3225|3210|3225|2389</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>4045|4050|4035|4040|9243</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>6570|6670|6540|6560|630162</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>3150|3160|3145|3145|2718</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>24500|24700|24450|24550|40374</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>17700|17750|16950|17180|151116</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>25450|25500|25250|25300|17241</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>9960|10050|9950|9970|376429</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>7490|7490|7450|7480|10593</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>3700|3715|3660|3660|33502</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>7290|7560|7290|7530|122333</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>27850|28000|27800|27950|16231</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>6670|6670|6600|6600|5352</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>3860|3910|3855|3855|11104</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>18600|18900|18580|18750|146679</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>34500|35050|34400|34550|70049</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>1877|1886|1868|1885|62249</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>7740|7750|7620|7620|115745</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>2075|2080|2070|2070|38440</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>1400|1400|1395|1399|45918</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>26400|27000|26350|26700|265589</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>9740|10280|9740|10260|1251458</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>7470|7480|7440|7450|14367</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>2540|2560|2525|2550|12260</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>18070|18390|17950|18030|147888</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>1790|1790|1778|1779|133757</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>2415|2420|2410|2410|19758</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>2035|2035|2020|2035|102908</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>3340|3340|3305|3310|260839</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>24450|24700|24300|24350|23603</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>3195|3200|3185|3185|23895</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|568</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>10190|10650|10150|10470|132145</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>37550|37700|37450|37500|20686</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>11570|11580|11540|11550|4985</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>22600|22850|22600|22850|61916</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>2885|2890|2875|2880|46471</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>4520|4725|4455|4725|1734258</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>7220|7260|7220|7250|15487</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>11820|11920|11750|11780|595086</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>4320|4345|4275|4285|261989</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>6590|6650|6590|6630|7484</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>7560|7790|7560|7750|155324</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>1313|1323|1312|1323|11538</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>3995|4000|3980|3995|7997</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>3785|3790|3750|3750|321547</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>3250|3250|3210|3220|46669</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>3990|4000|3955|3955|32902</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>4585|4585|4530|4565|30806</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>20230502132900</t>
+          <t>20230503132900</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1705|1718|1703|1715|293583</t>
+          <t>31250|31250|31250|31250|2003</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>34950|35050|34900|34900|6538</t>
+          <t>18280|18480|18170|18180|21407</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6760|6790|6690|6740|72555</t>
+          <t>22100|22250|21950|22100|139405</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8090|8430|7980|8180|241544</t>
+          <t>14830|14920|14600|14720|31851</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>13150|13250|13030|13180|26213</t>
+          <t>25950|26200|25900|26150|16791</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3520|3600|3515|3590|137772</t>
+          <t>2460|2465|2420|2435|135413</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|1206</t>
+          <t>1907|1909|1899|1901|101649</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3770|3805|3725|3740|158072</t>
+          <t>4825|4890|4710|4800|790827</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4995|5020|4845|4990|211510</t>
+          <t>9130|9130|9010|9070|75063</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>7090|7430|6970|7070|1354454</t>
+          <t>1757|1763|1740|1745|58875</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>9530|9530|9460|9500|3052</t>
+          <t>1057|1058|1053|1055|30360</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2745|2745|2730|2740|10032</t>
+          <t>3830|3865|3825|3860|16891</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>25450|25550|25250|25250|23220</t>
+          <t>1419|1469|1419|1462|815351</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>6610|6730|6530|6640|552083</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>9180|9180|9080|9110|19418</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>5620|5630|5590|5630|37457</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>6660|6720|6650|6670|1644792</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>1663|1663|1635|1656|63735</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>3225|3235|3220|3225|3167</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>4035|4035|4025|4030|26092</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>6580|6630|6450|6530|909130</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>3145|3145|3130|3135|15861</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>24550|24600|24300|24350|98345</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>17180|17430|17100|17390|27215</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>25250|25500|25250|25300|14678</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>9970|9990|9910|9930|131325</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>7480|7480|7420|7440|9190</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>3660|3670|3630|3635|43168</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>7530|7540|7450|7470|27631</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>28000|28000|27800|27950|10266</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>6620|6640|6590|6630|15871</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>3855|3940|3840|3920|24817</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>18750|18770|18540|18550|55198</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>34500|35000|34500|34600|57489</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>1885|1886|1875|1881|32293</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>7620|7650|7480|7570|322312</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>2070|2075|2065|2075|10385</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>1399|1399|1393|1397|24266</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>26700|26750|26000|26050|136289</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>10250|10470|10110|10450|841304</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>7460|7460|7400|7410|14109</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>2540|2540|2470|2470|69184</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>18050|18300|18030|18130|63589</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>1780|1782|1767|1767|189415</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>2410|2420|2405|2410|14148</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>2035|2035|2000|2015|198573</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>3310|3330|3300|3310|206434</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>24350|24400|23950|24050|40767</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>3185|3200|3160|3170|28721</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|1207</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>10490|10920|10380|10580|240566</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>37500|37600|37350|37400|11249</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>11560|11560|11450|11500|14240</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>22850|22950|22750|22900|45014</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>2880|2885|2870|2875|52634</t>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>4725|4900|4650|4795|1985457</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>7260|7270|7240|7270|3982</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>11770|11990|11750|11770|852441</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>4290|4315|4270|4275|111445</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>6630|6670|6590|6590|13152</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>7750|7760|7670|7720|81578</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>1325|1418|1314|1319|339516</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>3995|3995|3980|3985|2877</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>3750|3760|3715|3745|558384</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>3225|3255|3205|3255|46126</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>3955|3975|3945|3945|29929</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>4565|4570|4520|4520|20968</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>20230502134400</t>
+          <t>20230503134400</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1715|1716|1703|1714|319972</t>
+          <t>31250|31250|31250|31250|757</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>34900|35050|34650|34950|6445</t>
+          <t>18180|18180|17990|18040|14687</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6740|6770|6610|6730|115598</t>
+          <t>22050|22200|21800|22000|163387</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8190|8280|8050|8070|80361</t>
+          <t>14720|14870|14300|14680|24556</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>13180|13480|13160|13280|69273</t>
+          <t>26150|26300|26050|26250|14137</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3590|3715|3545|3600|578583</t>
+          <t>2440|2450|2415|2435|103773</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|2409</t>
+          <t>1901|1904|1893|1899|75672</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3745|3815|3725|3780|102900</t>
+          <t>4810|4835|4775|4795|391581</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4990|5000|4920|4950|93756</t>
+          <t>9030|9080|9010|9080|21865</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>7070|7220|7020|7080|468478</t>
+          <t>1745|1754|1744|1744|35826</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>9500|9500|9410|9480|5160</t>
+          <t>1053|1055|1051|1051|28001</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2740|2740|2700|2725|23355</t>
+          <t>3860|3865|3835|3850|9377</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>25300|25400|25250|25300|20998</t>
+          <t>1463|1463|1434|1445|395122</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>6640|6820|6550|6810|797966</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>9110|9170|9100|9130|8968</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>5630|5640|5600|5610|25012</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>6670|6720|6640|6710|878565</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>1655|1655|1633|1640|25039</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>3225|3225|3210|3210|3741</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>4030|4030|4020|4020|13284</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>6530|6590|6350|6480|646580</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>3135|3140|3115|3135|11203</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>24300|24350|24050|24200|63194</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>17390|17400|17080|17200|15012</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>25300|25350|25050|25200|34536</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>9930|9970|9840|9880|179749</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>7430|7450|7410|7440|7278</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>3635|3650|3620|3640|28285</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>7480|7540|7420|7530|36360</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>27950|28000|27700|27900|14815</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>6630|6640|6610|6630|1675</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>3915|3930|3855|3865|37906</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>18540|18540|18370|18490|56999</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>34600|34600|33900|34350|82924</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>1881|1881|1867|1871|32424</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>7580|7650|7460|7620|171973</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>2075|2075|2070|2070|36157</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>1396|1397|1391|1393|24151</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>26050|26300|26000|26250|114251</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>10450|11260|10400|10810|2823054</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>7420|7430|7360|7360|20499</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>2485|2520|2480|2520|29499</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>18150|18240|17950|18240|66367</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>1766|1799|1764|1789|207704</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>2410|2420|2405|2410|10068</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>2015|2020|1999|2000|218674</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>3315|3340|3290|3335|184351</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>24100|24450|24000|24300|14772</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>3170|3180|3145|3165|104031</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|1276</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>10600|10770|10430|10680|96745</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>37400|37500|37350|37450|10213</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>11450|11500|11440|11480|9227</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>22900|23050|22700|22950|56961</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>2870|2875|2860|2860|112829</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>4790|4820|4660|4795|846910</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>7270|7270|7210|7220|20498</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>11780|11810|11470|11760|1254300</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>4280|4310|4250|4270|165891</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>6600|6620|6570|6590|9841</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>7720|8000|7690|7780|581812</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>1327|1340|1321|1330|25840</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>3985|3990|3960|3985|11020</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>3740|3765|3720|3755|422992</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>3260|3270|3240|3260|53130</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>3965|3965|3935|3965|15669</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>4520|4555|4490|4510|34421</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>20230502135900</t>
+          <t>20230503135900</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1714|1727|1709|1726|348255</t>
+          <t>31250|31250|31250|31250|1132</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>34950|35100|34800|34950|2677</t>
+          <t>18060|18450|18060|18230|10622</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6720|6800|6720|6800|72182</t>
+          <t>22050|22200|21950|22050|75383</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8070|8160|7910|8090|53817</t>
+          <t>14670|14740|14610|14700|11683</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>13310|13380|13180|13260|38904</t>
+          <t>26300|26450|26150|26450|22740</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3605|3695|3570|3595|203034</t>
+          <t>2435|2435|2415|2430|53161</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|973</t>
+          <t>1897|1904|1893|1901|98397</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3775|3860|3760|3780|200135</t>
+          <t>4795|4835|4730|4735|426437</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4940|5010|4920|4970|91578</t>
+          <t>9080|9180|9050|9110|12321</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>7080|7760|7030|7760|1082621</t>
+          <t>1747|1753|1740|1740|32125</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>9480|9480|9330|9420|6877</t>
+          <t>1051|1053|1048|1048|80297</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2725|2730|2705|2725|4686</t>
+          <t>3855|3900|3850|3875|21256</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>25300|25400|24900|25050|69464</t>
+          <t>1445|1445|1427|1428|146092</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>6810|6900|6600|6600|700282</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>9140|9170|9120|9160|8354</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>5610|5620|5600|5610|27624</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>6720|6720|6550|6550|1035424</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>1639|1680|1633|1651|35114</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>3220|3220|3200|3205|13278</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>4020|4025|4020|4025|10496</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>6480|6530|6390|6390|423899</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>3135|3140|3115|3130|7033</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>24200|24250|24050|24100|37181</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>17200|17420|17140|17370|21667</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>25200|25300|25050|25100|20254</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>9890|9970|9880|9940|78860</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>7440|7450|7410|7410|9252</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>3630|3645|3610|3615|20624</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>7540|7650|7510|7550|61025</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>27900|27900|27750|27850|9469</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>6630|6630|6580|6600|3795</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>3865|3885|3770|3790|64694</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>18480|18490|18400|18410|27975</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>34350|34450|33300|33300|53548</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>1871|1872|1867|1868|18964</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>7630|7630|7350|7390|310550</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>2070|2075|2065|2070|10949</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>1395|1395|1390|1393|23916</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>26300|26450|26200|26350|38022</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>10810|11600|10730|11350|1918985</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>7360|7410|7350|7380|18451</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>2515|2530|2500|2530|15402</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>18240|18330|17990|18010|88822</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>1787|1794|1785|1788|76675</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>2410|2415|2405|2415|24571</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>2005|2005|1992|1992|63306</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>3335|3355|3310|3315|188297</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>24250|24600|24100|24450|18525</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>3165|3180|3155|3165|18184</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|1034</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>10680|10740|10490|10550|52057</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>37450|37650|37400|37550|10473</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>11470|11480|11420|11430|6834</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>22950|22950|22800|22900|19343</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>2865|2870|2860|2865|61966</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>4795|4845|4715|4800|491001</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>7220|7240|7210|7240|4677</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>11750|11760|11310|11330|683616</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>4260|4270|4235|4245|106543</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>6590|6620|6580|6610|8580</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>7780|8130|7780|8000|998063</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>1331|1337|1329|1329|9095</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>3970|3990|3965|3975|8491</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>3755|3790|3745|3780|498005</t>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>3260|3280|3240|3260|54561</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>3965|4000|3965|4000|37608</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>4510|4540|4510|4540|4082</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>20230502141400</t>
+          <t>20230503141400</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1726|1742|1715|1723|527035</t>
+          <t>31250|31250|31250|31250|4242</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>34900|34900|34700|34900|3346</t>
+          <t>18220|18280|18170|18200|4610</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6790|6810|6750|6760|59284</t>
+          <t>22050|22300|22050|22200|131893</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8090|8160|8050|8090|38502</t>
+          <t>14690|14700|14390|14590|16687</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>13300|13370|13070|13160|62033</t>
+          <t>26450|26550|26350|26500|27982</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3590|3685|3550|3685|104603</t>
+          <t>2430|2440|2425|2440|20576</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|1810</t>
+          <t>1902|1905|1892|1895|81700</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>3785|3800|3715|3725|127453</t>
+          <t>4735|4790|4695|4775|336579</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4965|5010|4910|4915|90838</t>
+          <t>9110|9160|9040|9090|15794</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>7760|7760|7350|7490|1150668</t>
+          <t>1743|1749|1740|1749|25435</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>9420|9420|9310|9380|4584</t>
+          <t>1049|1052|1048|1052|9115</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2715|2725|2700|2725|10270</t>
+          <t>3880|3945|3875|3905|45942</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>25050|25200|24950|25150|42369</t>
+          <t>1427|1444|1415|1424|265986</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>6610|6620|6350|6430|534239</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>9130|9150|9100|9120|8195</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>5610|5650|5600|5640|25073</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>6550|6680|6540|6590|880616</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>1647|1661|1644|1646|24777</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>3205|3215|3200|3210|4635</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>4020|4025|4020|4025|24132</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>6390|6470|6350|6390|356758</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>3130|3135|3115|3125|13096</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>24100|24250|24000|24200|35544</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>17370|17480|17230|17350|24446</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>25100|25250|25000|25050|15512</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>9940|9980|9890|9970|102576</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>7400|7430|7360|7430|29828</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>3620|3630|3600|3615|22759</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>7580|7580|7400|7580|26362</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>27850|27900|27650|27700|22014</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>6600|6620|6570|6600|6875</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>3790|3855|3770|3835|24502</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>18420|18490|18400|18460|25319</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>33300|33850|33250|33500|40869</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>1868|1869|1864|1865|65228</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>7400|7460|7300|7450|251632</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>2075|2075|2065|2070|15910</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>1393|1395|1391|1392|3419</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>26350|26650|26300|26450|55690</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>11340|11430|11150|11220|607808</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>7410|7440|7360|7440|32533</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>2535|2535|2500|2515|19696</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>17990|18150|17950|18090|27757</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>1788|1791|1782|1787|63729</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>2415|2415|2395|2400|26341</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>1992|2010|1990|1991|127509</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>3320|3320|3280|3300|178663</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>24450|24600|24100|24250|14956</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>3165|3175|3155|3165|10140</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|3211</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>10550|10900|10550|10600|152227</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>37550|37600|37350|37400|13008</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>11420|11430|11360|11380|15631</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>22900|22900|22650|22750|13748</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>2870|2870|2850|2865|223716</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>4800|4915|4735|4775|847448</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>7240|7250|7220|7240|6403</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>11340|11600|11310|11500|556334</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>4250|4270|4230|4255|62526</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>6610|6610|6550|6580|10627</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>8000|8090|7840|7880|311915</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>1329|1336|1318|1326|19706</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>3970|4000|3960|4000|30192</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>3785|3925|3775|3865|5181857</t>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>3260|3285|3255|3255|66618</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>4000|4000|3975|3995|24677</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>4540|4550|4530|4550|1644</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>20230502142900</t>
+          <t>20230503142900</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1722|1724|1699|1706|430921</t>
+          <t>31250|31250|31250|31250|475</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>34900|35000|34850|34850|1855</t>
+          <t>18200|18380|18170|18380|6848</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6760|6820|6760|6780|58479</t>
+          <t>22250|22450|22200|22450|212135</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8060|8100|8000|8040|32135</t>
+          <t>14470|14700|14220|14430|27391</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>13160|13190|13080|13110|36967</t>
+          <t>26550|26600|26300|26450|20523</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3680|3685|3575|3625|91702</t>
+          <t>2440|2455|2435|2445|39730</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|2176</t>
+          <t>1895|1901|1886|1887|82526</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3735|3795|3645|3645|234301</t>
+          <t>4775|4775|4705|4725|231269</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>4920|5010|4890|4990|83545</t>
+          <t>9110|9150|9090|9110|18224</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>7490|7750|7430|7570|673780</t>
+          <t>1748|1761|1748|1757|32778</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>9380|9410|9370|9400|2160</t>
+          <t>1051|1053|1050|1050|17177</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2725|2725|2705|2720|4036</t>
+          <t>3910|4110|3885|3990|340575</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>25100|25250|25000|25150|26757</t>
+          <t>1421|1424|1404|1408|193087</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>6430|6470|6400|6430|98501</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>9120|9120|9070|9070|10850</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>5630|5640|5610|5640|14315</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>6590|6610|6510|6590|915041</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>1646|1658|1643|1653|8353</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>3215|3220|3210|3220|1848</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>4025|4035|4025|4035|12604</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>6390|6440|6310|6420|344996</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>3130|3135|3120|3125|6788</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>24200|24300|24100|24250|30167</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>17310|17590|17240|17540|29305</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>25050|25250|25050|25200|12055</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>9970|9980|9900|9910|77561</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>7430|7430|7360|7400|5884</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>3620|3640|3620|3630|17066</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>7560|7580|7420|7450|19953</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>27700|27950|27700|27700|15342</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>6600|6620|6600|6620|1588</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>3835|3840|3740|3840|28666</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>18450|18560|18250|18250|57416</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>33500|33900|33100|33300|36474</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>1865|1909|1864|1907|199182</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>7440|7520|7410|7480|117538</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>2070|2070|2065|2070|26498</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>1392|1395|1391|1392|14535</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>26500|26600|26350|26450|55258</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>11220|11310|10730|10900|771044</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>7440|7440|7390|7410|12840</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>2515|2520|2510|2515|12127</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>18090|18130|17780|17930|54270</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>1786|1787|1767|1779|91152</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>2400|2410|2395|2405|22160</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>1997|1998|1987|1998|84876</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>3300|3300|3275|3280|128318</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>24200|24500|24150|24400|10251</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>3165|3170|3155|3155|23546</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|464</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>10600|10650|10500|10570|44118</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>37400|37850|37400|37650|20447</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>11400|11440|11390|11400|11155</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>22750|22800|22600|22750|18091</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>2865|2865|2855|2855|70275</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>4780|4790|4615|4790|717910</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>7250|7270|7240|7250|6146</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>11500|11590|11320|11390|464131</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>4265|4290|4245|4275|88957</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>6570|6590|6460|6510|48080</t>
+        </is>
+      </c>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>7880|7930|7740|7790|149576</t>
+        </is>
+      </c>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>1326|1331|1326|1331|4262</t>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>3990|4000|3965|3985|3700</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t>3865|3900|3820|3830|1834756</t>
+        </is>
+      </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>3255|3265|3240|3250|36340</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>3995|3995|3970|3985|20402</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>4550|4565|4550|4560|2567</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>20230502144400</t>
+          <t>20230503144400</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1706|1737|1703|1734|514970</t>
+          <t>31250|31250|31250|31250|604</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>34850|34900|34750|34750|2395</t>
+          <t>18390|18450|18190|18320|10223</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6770|6800|6750|6770|51651</t>
+          <t>22400|22900|22300|22850|848584</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8030|8080|8010|8050|17813</t>
+          <t>14470|14640|14450|14540|12416</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>13160|13230|12820|12940|109317</t>
+          <t>26400|26450|26200|26250|27337</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3625|3665|3565|3595|119863</t>
+          <t>2445|2465|2440|2460|90521</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|1504</t>
+          <t>1889|1903|1880|1893|74452</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3645|3745|3645|3730|111133</t>
+          <t>4725|4750|4690|4730|251810</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4990|5110|4970|4990|201184</t>
+          <t>9110|9190|9080|9190|28174</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>7590|7630|7100|7230|428776</t>
+          <t>1759|1759|1749|1750|35012</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>9370|9400|9360|9400|2476</t>
+          <t>1052|1052|1049|1050|34860</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2720|2750|2710|2745|50501</t>
+          <t>3985|4490|3985|4120|2561715</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>25150|25250|25050|25150|22404</t>
+          <t>1407|1413|1390|1392|207590</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>6410|6490|6400|6460|73685</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>9080|9080|8990|9040|25991</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>5630|5640|5610|5610|13062</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>6580|6670|6550|6660|527951</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>1653|1657|1647|1653|22311</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>3215|3235|3210|3235|16822</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>4035|4035|4030|4030|26977</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>6400|6500|6400|6470|357937</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>3125|3135|3120|3120|4157</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>24250|24750|24100|24650|151160</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>17550|17560|17300|17500|15388</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>25150|25200|24950|25100|34072</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>9910|9930|9870|9900|103157</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>7400|7410|7360|7380|6476</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>3625|3635|3605|3620|16249</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>7450|7520|7440|7490|13506</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>27700|27850|27600|27800|28740</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>6620|6650|6610|6650|4702</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>3840|3855|3805|3805|32041</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>18240|18320|18100|18200|64746</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>33300|33650|33250|33500|14771</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>1905|1915|1903|1906|193944</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>7480|7520|7410|7460|130397</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>2065|2070|2060|2065|26226</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>1392|1394|1390|1390|10699</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>26500|26850|26400|26850|164389</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>10900|11330|10850|11260|651888</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>7400|7420|7360|7370|14223</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>2520|2520|2510|2515|15346</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>17920|18300|17760|18160|45812</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>1779|1787|1768|1786|142642</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>2405|2405|2395|2400|9812</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>1998|2005|1994|2005|81439</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>3280|3290|3265|3280|136833</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>24400|24650|24100|24200|26662</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>3160|3160|3130|3135|52666</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|555</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>10600|10650|10400|10520|58520</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>37650|37800|37600|37800|20208</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>11400|11450|11370|11440|4410</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>22750|22850|22600|22750|22687</t>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>2855|2865|2855|2860|115957</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>4785|4900|4650|4825|829123</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>7240|7250|7200|7240|24752</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>11400|11530|11320|11510|420971</t>
+        </is>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>4270|4340|4260|4335|212911</t>
+        </is>
+      </c>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>6490|6500|6430|6480|24195</t>
+        </is>
+      </c>
+      <c r="BJ24" t="inlineStr">
+        <is>
+          <t>7780|7950|7760|7860|113103</t>
+        </is>
+      </c>
+      <c r="BK24" t="inlineStr">
+        <is>
+          <t>1331|1331|1320|1322|6029</t>
+        </is>
+      </c>
+      <c r="BL24" t="inlineStr">
+        <is>
+          <t>3990|4025|3985|4020|52338</t>
+        </is>
+      </c>
+      <c r="BM24" t="inlineStr">
+        <is>
+          <t>3825|3850|3730|3780|1703441</t>
+        </is>
+      </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>3240|3275|3215|3240|99081</t>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>3985|4000|3985|4000|27117</t>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>4555|4560|4540|4560|7600</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>20230502145900</t>
+          <t>20230503145900</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1734|1761|1718|1748|2616887</t>
+          <t>31250|31250|31250|31250|1280</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>34750|34950|34600|34950|3714</t>
+          <t>18330|18400|18170|18200|13012</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6780|6800|6740|6790|62784</t>
+          <t>22850|22900|22650|22800|444365</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8040|8060|8010|8010|13201</t>
+          <t>14570|14710|14570|14570|16713</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>12930|13110|12850|13040|49916</t>
+          <t>26300|26350|26150|26250|20199</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3595|3605|3555|3585|87981</t>
+          <t>2460|2460|2450|2455|64766</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|664</t>
+          <t>1890|1900|1880|1881|73644</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3740|3775|3705|3765|92717</t>
+          <t>4730|4750|4695|4730|261128</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>4990|5060|4990|5030|67046</t>
+          <t>9180|9230|9120|9210|48227</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>7230|7300|7050|7220|423789</t>
+          <t>1750|1754|1748|1749|26880</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>9380|9440|9370|9430|1545</t>
+          <t>1049|1050|1049|1049|29498</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2745|2745|2725|2725|11935</t>
+          <t>4135|4180|3935|3995|517484</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>25150|25300|25100|25150|32826</t>
+          <t>1392|1392|1375|1382|187252</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>6460|6500|6410|6450|89544</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>9040|9040|9000|9000|7712</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>5610|5640|5600|5640|30112</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>6660|6720|6640|6700|1126867</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>1655|1663|1651|1657|45482</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>3230|3235|3210|3230|5560</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>4035|4035|4030|4035|8712</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>6480|6490|6370|6440|249148</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>3125|3130|3120|3130|5613</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>24700|24700|24400|24500|59215</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>17500|17500|17370|17440|13001</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>25050|25100|24900|25050|20973</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>9910|9920|9840|9850|155897</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>7380|7400|7350|7380|7071</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>3620|3635|3600|3610|28909</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>7490|7520|7450|7470|8785</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>27800|27850|27650|27700|16600</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>6650|6670|6600|6650|7697</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>3805|3845|3805|3840|15603</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>18210|18320|18100|18300|48491</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>33500|33950|33500|33850|31135</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>1905|1930|1904|1908|170258</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>7470|7500|7430|7470|73733</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>2065|2070|2060|2070|15533</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>1390|1394|1389|1393|18228</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>26800|26900|26750|26850|148708</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>11270|11450|10720|10780|753803</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>7370|7390|7300|7360|37036</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>2515|2520|2505|2520|14719</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>18140|18180|18060|18110|35761</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>1786|1796|1780|1783|213313</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>2395|2405|2390|2400|22863</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>2005|2015|2000|2010|77225</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>3275|3285|3265|3270|85195</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>24200|24200|23950|24000|38487</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>3135|3150|3125|3140|50030</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|1445</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>10500|10560|10380|10420|28783</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>37800|39200|37800|39150|317244</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>11440|11460|11400|11420|11050</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>22800|22800|22650|22800|15341</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>2860|2865|2850|2860|94743</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>4825|4880|4780|4855|589206</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>7240|7250|7200|7210|20109</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>11510|11670|11470|11610|626039</t>
+        </is>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>4330|4350|4320|4340|123400</t>
+        </is>
+      </c>
+      <c r="BI25" t="inlineStr">
+        <is>
+          <t>6460|6480|6400|6440|43181</t>
+        </is>
+      </c>
+      <c r="BJ25" t="inlineStr">
+        <is>
+          <t>7860|7940|7650|7700|168625</t>
+        </is>
+      </c>
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t>1322|1329|1322|1328|5178</t>
+        </is>
+      </c>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>4020|4020|3990|4000|25494</t>
+        </is>
+      </c>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>3775|3815|3760|3795|794845</t>
+        </is>
+      </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>3240|3240|3220|3230|30662</t>
+        </is>
+      </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>4005|4020|3980|3980|51908</t>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>4560|4565|4535|4540|10057</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>20230502151400</t>
+          <t>20230503151400</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1750|1757|1700|1716|1531412</t>
+          <t>31250|31250|31250|31250|789</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>34950|35250|34700|35100|13367</t>
+          <t>18260|18300|18190|18240|18266</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6790|6850|6780|6840|235072</t>
+          <t>22800|22850|22650|22850|304809</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8010|8050|7960|7990|43124</t>
+          <t>14560|14740|14370|14530|23149</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>13040|13100|12910|13000|32553</t>
+          <t>26250|26250|26100|26200|12714</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3585|3620|3560|3620|130968</t>
+          <t>2450|2460|2440|2450|102987</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|296</t>
+          <t>1883|1883|1873|1882|121022</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3770|3815|3750|3800|148175</t>
+          <t>4730|4730|4625|4675|479366</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>5030|5050|4915|4955|141112</t>
+          <t>9210|9220|9140|9190|40726</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>7200|7930|7200|7930|1752446</t>
+          <t>1749|1754|1747|1749|24479</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>9430|9450|9390|9430|2044</t>
+          <t>1049|1050|1049|1050|43547</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2725|2805|2720|2795|258869</t>
+          <t>3980|4025|3905|3960|190902</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>25150|25200|25050|25100|17051</t>
+          <t>1381|1385|1362|1383|232961</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>6440|6500|6410|6500|105728</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>9020|9130|8960|9100|20046</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>5640|5640|5610|5630|20332</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>6690|6720|6510|6690|2847059</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>1655|1657|1645|1651|23501</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>3230|3230|3200|3210|11753</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>4035|4035|4030|4030|14359</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>6450|6450|6250|6350|446346</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>3130|3135|3125|3135|8052</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>24500|24650|24250|24400|67467</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>17430|17480|17360|17420|11171</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>25000|25100|24950|25000|16138</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>9840|9890|9800|9840|159950</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>7390|7400|7360|7400|8732</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>3610|3635|3595|3605|60738</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>7470|7610|7440|7540|30458</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>27750|27900|27700|27800|22714</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>6650|6670|6620|6660|11289</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>3840|3925|3755|3890|60370</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>18300|18380|17900|17970|85682</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>33850|33900|32750|32950|63398</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>1908|1927|1908|1921|171274</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>7460|7490|7400|7410|132800</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>2065|2070|2065|2070|17926</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>1393|1394|1390|1391|10063</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>26900|26900|26600|26650|125417</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>10780|10950|10340|10590|789142</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>7350|7370|7310|7360|31276</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>2520|2520|2495|2505|20402</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>18110|18110|17650|17800|62456</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>1783|1810|1783|1806|282699</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>2405|2405|2390|2395|29842</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>2010|2020|1999|2005|139621</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>3275|3280|3250|3255|183285</t>
+        </is>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>23950|24200|23950|24100|27923</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>3145|3145|3130|3135|39237</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|403</t>
+        </is>
+      </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>10420|10440|10230|10400|53139</t>
+        </is>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>39100|40150|39100|39300|556195</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>11400|11450|11380|11430|7850</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>22750|22800|22700|22750|21264</t>
+        </is>
+      </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>2860|2860|2845|2845|232710</t>
+        </is>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>4860|4885|4460|4835|1531633</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>7210|7250|7200|7210|12813</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>11610|11620|11080|11430|1298102</t>
+        </is>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>4335|4345|4325|4340|115139</t>
+        </is>
+      </c>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>6440|6500|6420|6470|19732</t>
+        </is>
+      </c>
+      <c r="BJ26" t="inlineStr">
+        <is>
+          <t>7690|7730|7510|7560|131040</t>
+        </is>
+      </c>
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>1328|1332|1326|1327|15213</t>
+        </is>
+      </c>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>4000|4035|3995|4035|47728</t>
+        </is>
+      </c>
+      <c r="BM26" t="inlineStr">
+        <is>
+          <t>3795|3825|3770|3815|821758</t>
+        </is>
+      </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>3230|3235|3210|3235|48142</t>
+        </is>
+      </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>3980|4015|3975|4005|25409</t>
+        </is>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>4540|4560|4535|4560|3519</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>20230502153000</t>
+          <t>20230503153000</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1761|1761|1761|1761|444508</t>
+          <t>31250|31250|31250|31250|252</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>35950|35950|35950|35950|24240</t>
+          <t>18230|18230|18230|18230|5398</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6820|6820|6820|6820|182656</t>
+          <t>23200|23200|23200|23200|256093</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8020|8020|8020|8020|43908</t>
+          <t>14640|14640|14640|14640|6539</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>13200|13200|13200|13200|81544</t>
+          <t>26150|26150|26150|26150|4611</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3690|3690|3690|3690|148742</t>
+          <t>2460|2460|2460|2460|77608</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>22850|22850|22850|22850|892</t>
+          <t>1883|1883|1883|1883|60360</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3840|3840|3840|3840|147772</t>
+          <t>4690|4690|4690|4690|96524</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>5060|5060|5060|5060|143578</t>
+          <t>9150|9150|9150|9150|20185</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>7930|7930|7930|7930|40382</t>
+          <t>1751|1751|1751|1751|18681</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>9450|9450|9450|9450|14006</t>
+          <t>1052|1052|1052|1052|14944</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2750|2750|2750|2750|84192</t>
+          <t>3935|3935|3935|3935|52863</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>25150|25150|25150|25150|29206</t>
+          <t>1389|1389|1389|1389|114766</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>6460|6460|6460|6460|56547</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>9100|9100|9100|9100|6105</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>5630|5630|5630|5630|11713</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>6720|6720|6720|6720|21634</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>1649|1649|1649|1649|21437</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>3225|3225|3225|3225|5817</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>4040|4040|4040|4040|9723</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>6460|6460|6460|6460|167404</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>3120|3120|3120|3120|8053</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>24450|24450|24450|24450|31530</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>17450|17450|17450|17450|7135</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>24950|24950|24950|24950|7002</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>9820|9820|9820|9820|72794</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>7400|7400|7400|7400|7983</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>3600|3600|3600|3600|21135</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>7650|7650|7650|7650|24230</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>27950|27950|27950|27950|11798</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>6680|6680|6680|6680|6058</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>3825|3825|3825|3825|9103</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>18140|18140|18140|18140|20299</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>33700|33700|33700|33700|14031</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>1944|1944|1944|1944|141111</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>7510|7510|7510|7510|93379</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>2065|2065|2065|2065|13389</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>1397|1397|1397|1397|30936</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>26700|26700|26700|26700|34034</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>10920|10920|10920|10920|130277</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>7320|7320|7320|7320|10863</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>2510|2510|2510|2510|7478</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>17940|17940|17940|17940|17671</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>1807|1807|1807|1807|155139</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>2405|2405|2405|2405|24681</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>2000|2000|2000|2000|55690</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>3265|3265|3265|3265|83674</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>24150|24150|24150|24150|11607</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>3140|3140|3140|3140|14354</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>29700|29700|29700|29700|774</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>10300|10300|10300|10300|14032</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>39650|39650|39650|39650|44327</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>11370|11370|11370|11370|5255</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>22600|22600|22600|22600|16983</t>
+        </is>
+      </c>
+      <c r="BD27" t="inlineStr">
+        <is>
+          <t>2840|2840|2840|2840|101003</t>
+        </is>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>4970|4970|4970|4970|368751</t>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>7220|7220|7220|7220|12383</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>11330|11330|11330|11330|182417</t>
+        </is>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>4345|4345|4345|4345|66569</t>
+        </is>
+      </c>
+      <c r="BI27" t="inlineStr">
+        <is>
+          <t>6500|6500|6500|6500|17844</t>
+        </is>
+      </c>
+      <c r="BJ27" t="inlineStr">
+        <is>
+          <t>7640|7640|7640|7640|18225</t>
+        </is>
+      </c>
+      <c r="BK27" t="inlineStr">
+        <is>
+          <t>1318|1318|1318|1318|7867</t>
+        </is>
+      </c>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>4020|4020|4020|4020|8312</t>
+        </is>
+      </c>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>3825|3825|3825|3825|510696</t>
+        </is>
+      </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>3230|3230|3230|3230|44645</t>
+        </is>
+      </c>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t>3995|3995|3995|3995|26123</t>
+        </is>
+      </c>
+      <c r="BP27" t="inlineStr">
+        <is>
+          <t>4540|4540|4540|4540|8660</t>
         </is>
       </c>
     </row>
